--- a/Fortran code/Fortran_bcs_pin_ettore/Record/1.2_compare/compare 1.2 44.xlsx
+++ b/Fortran code/Fortran_bcs_pin_ettore/Record/1.2_compare/compare 1.2 44.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{936F7C7D-F5CF-42E2-B325-C404E965BA19}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F21EB8-A0B4-4143-ABA8-AFA165017BA2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2282,7 +2282,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$X$93:$AJ$93</c15:sqref>
@@ -2335,7 +2335,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-FBDE-456E-A0D4-1342EBB0746A}"/>
                   </c:ext>
@@ -2449,7 +2449,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$X$139:$AR$139</c15:sqref>
@@ -2526,7 +2526,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-C306-4B5B-8881-84FC67C20BA6}"/>
                   </c:ext>
@@ -6133,7 +6133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="V4" workbookViewId="0">
       <selection activeCell="W41" sqref="W41"/>
     </sheetView>
   </sheetViews>
